--- a/21838-2/bfo-2020-relations-table.xlsx
+++ b/21838-2/bfo-2020-relations-table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Implication/Users/alanr/repos/bfo-theory/lsw-src/version/4/iso extras/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanr/repos/bfo-theory/lsw-src/version/11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF57038-E76E-D446-9F78-820965063783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE5D2DF-BEE1-2444-825B-5E9E9B252775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="64440" yWindow="5800" windowWidth="29560" windowHeight="19520" xr2:uid="{1FD4CBCD-AE29-CA4F-9245-2E5479E87DD3}"/>
   </bookViews>
@@ -27,36 +27,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
   <si>
-    <t>has proper continuant part at</t>
-  </si>
-  <si>
     <t>has proper continuant part at all times</t>
   </si>
   <si>
     <t>has proper continuant part at some time</t>
   </si>
   <si>
-    <t>proper continuant part of at</t>
-  </si>
-  <si>
     <t>proper continuant part of at all times</t>
   </si>
   <si>
     <t>proper continuant part of at some time</t>
   </si>
   <si>
-    <t>material basis of at</t>
-  </si>
-  <si>
     <t>material basis of at all times</t>
   </si>
   <si>
     <t>material basis of at some time</t>
   </si>
   <si>
-    <t>has material basis at</t>
-  </si>
-  <si>
     <t>has material basis at all times</t>
   </si>
   <si>
@@ -78,18 +66,12 @@
     <t>inheres in</t>
   </si>
   <si>
-    <t>has continuant part at</t>
-  </si>
-  <si>
     <t>has continuant part at all times</t>
   </si>
   <si>
     <t>has continuant part at some time</t>
   </si>
   <si>
-    <t>continuant part of at</t>
-  </si>
-  <si>
     <t>continuant part of at all times</t>
   </si>
   <si>
@@ -114,36 +96,24 @@
     <t>temporal part of</t>
   </si>
   <si>
-    <t>has member part at</t>
-  </si>
-  <si>
     <t>has member part at all times</t>
   </si>
   <si>
     <t>has member part at some time</t>
   </si>
   <si>
-    <t>member part of at</t>
-  </si>
-  <si>
     <t>member part of at all times</t>
   </si>
   <si>
     <t>member part of at some time</t>
   </si>
   <si>
-    <t>is concretized by at</t>
-  </si>
-  <si>
     <t>is concretized by at all times</t>
   </si>
   <si>
     <t>is concretized by at some time</t>
   </si>
   <si>
-    <t>concretizes at</t>
-  </si>
-  <si>
     <t>concretizes at all times</t>
   </si>
   <si>
@@ -168,18 +138,12 @@
     <t>proper occurrent part of</t>
   </si>
   <si>
-    <t>is carrier of at</t>
-  </si>
-  <si>
     <t>is carrier of at all times</t>
   </si>
   <si>
     <t>is carrier of at some time</t>
   </si>
   <si>
-    <t>generically depends on at</t>
-  </si>
-  <si>
     <t>generically depends on at all times</t>
   </si>
   <si>
@@ -192,18 +156,12 @@
     <t>occurrent part of</t>
   </si>
   <si>
-    <t>has location at</t>
-  </si>
-  <si>
     <t>has location at all times</t>
   </si>
   <si>
     <t>has location at some time</t>
   </si>
   <si>
-    <t>located in at</t>
-  </si>
-  <si>
     <t>located in at all times</t>
   </si>
   <si>
@@ -216,18 +174,12 @@
     <t>occurs in</t>
   </si>
   <si>
-    <t>has participant at</t>
-  </si>
-  <si>
     <t>has participant at all times</t>
   </si>
   <si>
     <t>has participant at some time</t>
   </si>
   <si>
-    <t>participates in at</t>
-  </si>
-  <si>
     <t>participates in at all times</t>
   </si>
   <si>
@@ -246,9 +198,6 @@
     <t>occupies spatiotemporal region</t>
   </si>
   <si>
-    <t>occupies spatial region at</t>
-  </si>
-  <si>
     <t>occupies spatial region at all times</t>
   </si>
   <si>
@@ -258,9 +207,6 @@
     <t>occupies temporal region</t>
   </si>
   <si>
-    <t>spatially projects onto at</t>
-  </si>
-  <si>
     <t>spatially projects onto at all times</t>
   </si>
   <si>
@@ -279,9 +225,6 @@
     <t>inverse</t>
   </si>
   <si>
-    <t>inverse at all times</t>
-  </si>
-  <si>
     <t>inverse at some timea</t>
   </si>
   <si>
@@ -292,6 +235,63 @@
   </si>
   <si>
     <t xml:space="preserve">has realization </t>
+  </si>
+  <si>
+    <t>reverse at all times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concretizes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuant part of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">generically depends on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has continuant part </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has material basis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has member part </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has participant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has proper continuant part </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is carrier of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is concretized by </t>
+  </si>
+  <si>
+    <t xml:space="preserve">located in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">material basis of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">member part of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">occupies spatial region </t>
+  </si>
+  <si>
+    <t xml:space="preserve">participates in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proper continuant part of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spatially projects onto </t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,920 +670,920 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
         <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
       <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
